--- a/Final_Files/List of Constraints.xlsx
+++ b/Final_Files/List of Constraints.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marky\eclipse-workspace\CAM_Photosynethesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marky\projects\CAM_Photosynthesis\Final_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B65DB5B-B83B-4D5F-AE49-A153C6316751}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D90FA9-A457-4268-80E0-E75E326F3650}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{544C5F5E-8F14-46CF-89B0-94E709613552}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>Constraints</t>
   </si>
@@ -129,9 +129,6 @@
     <t>CO2_tx_reverse</t>
   </si>
   <si>
-    <t>unlProtHYPO_c1_phase1</t>
-  </si>
-  <si>
     <t>unlProtHYPO_c</t>
   </si>
   <si>
@@ -144,14 +141,65 @@
     <t>All fluxes presented here are in mol/m2/phase</t>
   </si>
   <si>
-    <t>Sum of fluxes are in mol/m2/day</t>
+    <t>Phloem_biomass</t>
+  </si>
+  <si>
+    <t>H2O_tx</t>
+  </si>
+  <si>
+    <t>GLC transfer</t>
+  </si>
+  <si>
+    <t>H2O transfer</t>
+  </si>
+  <si>
+    <t>H transfer</t>
+  </si>
+  <si>
+    <t>K transfer</t>
+  </si>
+  <si>
+    <t>NH4 transfer</t>
+  </si>
+  <si>
+    <t>Ca transfer</t>
+  </si>
+  <si>
+    <t>Mg transfer</t>
+  </si>
+  <si>
+    <t>Phloem transfer</t>
+  </si>
+  <si>
+    <t>Sucrose transfer</t>
+  </si>
+  <si>
+    <t>Pi uptake</t>
+  </si>
+  <si>
+    <t>SO4 uptake</t>
+  </si>
+  <si>
+    <t>Maintenance – NADPH</t>
+  </si>
+  <si>
+    <t>O2_tx</t>
+  </si>
+  <si>
+    <t>O2 transfer</t>
+  </si>
+  <si>
+    <t>Phloem_output_tx</t>
+  </si>
+  <si>
+    <t>H_ic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,23 +219,24 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -326,43 +375,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -383,27 +411,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043BFC10-4C32-434F-AF3A-9CBB19C4B21C}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,500 +802,617 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.36720000000000003</v>
+      </c>
+      <c r="D5" s="21">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="F5" s="21">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="19">
+        <f>C5/9</f>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="D16" s="19">
+        <f>D5/9</f>
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="E16" s="19">
+        <f>E5/9</f>
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="F16" s="19">
+        <f>F5/9</f>
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="19">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="D17" s="19">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="19">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="D18" s="19">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="F18" s="19">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.36720000000000003</v>
-      </c>
-      <c r="D6" s="11">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.24479999999999999</v>
-      </c>
-      <c r="F6" s="11">
-        <v>9.1800000000000007E-2</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="2">
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="C22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
         <v>0.432</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E24" s="19">
         <v>6.9119999999999999</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F24" s="19">
         <v>1.296</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="28" t="s">
+      <c r="G24" s="12"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="28" t="s">
+      <c r="C25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="28" t="s">
+      <c r="C26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="22">
-        <v>0</v>
-      </c>
-      <c r="D24" s="22">
-        <v>0</v>
-      </c>
-      <c r="E24" s="22">
-        <v>0</v>
-      </c>
-      <c r="F24" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="C27" s="26">
+        <v>0</v>
+      </c>
+      <c r="D27" s="26">
+        <v>0</v>
+      </c>
+      <c r="E27" s="26">
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="24">
-        <v>0</v>
-      </c>
-      <c r="D25" s="24">
-        <v>0</v>
-      </c>
-      <c r="E25" s="24">
-        <v>0</v>
-      </c>
-      <c r="F25" s="25">
+      <c r="C28" s="15">
+        <v>0</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
